--- a/save_folder/some_list - Copy (2).xlsx
+++ b/save_folder/some_list - Copy (2).xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ну привет</t>
+          <t>Объект</t>
         </is>
       </c>
     </row>
@@ -466,6 +466,11 @@
       <c r="C2" s="2" t="n">
         <v>54654</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -479,6 +484,11 @@
       <c r="C3" s="2" t="n">
         <v>8486465</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -492,6 +502,11 @@
       <c r="C4" s="2" t="n">
         <v>46</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -505,6 +520,11 @@
       <c r="C5" s="2" t="n">
         <v>465</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -518,6 +538,11 @@
       <c r="C6" s="2" t="n">
         <v>1123123</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -531,6 +556,11 @@
       <c r="C7" s="2" t="n">
         <v>654654</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -544,6 +574,11 @@
       <c r="C8" s="2" t="n">
         <v>654</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -557,6 +592,11 @@
       <c r="C9" s="2" t="n">
         <v>45435</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -570,6 +610,11 @@
       <c r="C10" s="2" t="n">
         <v>3453453</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -583,6 +628,11 @@
       <c r="C11" s="2" t="n">
         <v>6546</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -596,6 +646,11 @@
       <c r="C12" s="2" t="n">
         <v>5465</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -609,6 +664,11 @@
       <c r="C13" s="2" t="n">
         <v>23143434</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -622,6 +682,11 @@
       <c r="C14" s="2" t="n">
         <v>213123</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -634,6 +699,11 @@
       </c>
       <c r="C15" s="2" t="n">
         <v>64484</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>some_list - Copy (2)</t>
+        </is>
       </c>
     </row>
   </sheetData>
